--- a/Reports/Блок для Холетского.xlsx
+++ b/Reports/Блок для Холетского.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,73 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>Кофигурация системы:</t>
+  </si>
+  <si>
+    <t>CPU:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel(R) Xeon(R) CPU E5-2660 0 @ 2,20GHz
+</t>
+  </si>
+  <si>
+    <t>L1 Кэш:</t>
+  </si>
+  <si>
+    <t>32i + 32d кб</t>
+  </si>
+  <si>
+    <t>L2 Кэш:</t>
+  </si>
+  <si>
+    <t>256 кб</t>
+  </si>
+  <si>
+    <t>L3 Кэш:</t>
+  </si>
+  <si>
+    <t>20480 кб(20 мб)</t>
+  </si>
+  <si>
+    <t>Число ядер:</t>
+  </si>
+  <si>
+    <t>Объём ОЗУ:</t>
+  </si>
+  <si>
+    <t>64 гб</t>
+  </si>
+  <si>
+    <t>OC:</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Компилятор:</t>
+  </si>
+  <si>
+    <t>icc</t>
+  </si>
+  <si>
+    <t>block_size</t>
+  </si>
+  <si>
+    <t>t , c</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,21 +104,1163 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость времения от размера блоков</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12933333333333333"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t , c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="216296584"/>
+        <c:axId val="216295800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="216296584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер блока</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44906824146981628"/>
+              <c:y val="0.89256926217556143"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216295800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="216295800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>c, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время исполнения </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216296584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +1298,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +1335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +1370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +1543,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>128</v>
+      </c>
+      <c r="G2">
+        <v>14.26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>256</v>
+      </c>
+      <c r="G3">
+        <v>13.99</v>
+      </c>
+      <c r="I3">
+        <v>640</v>
+      </c>
+      <c r="J3">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>384</v>
+      </c>
+      <c r="G4">
+        <v>14.46</v>
+      </c>
+      <c r="I4">
+        <v>672</v>
+      </c>
+      <c r="J4">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>512</v>
+      </c>
+      <c r="G5">
+        <v>14.41</v>
+      </c>
+      <c r="I5">
+        <v>704</v>
+      </c>
+      <c r="J5">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>640</v>
+      </c>
+      <c r="G6">
+        <v>14.49</v>
+      </c>
+      <c r="I6">
+        <v>736</v>
+      </c>
+      <c r="J6">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>768</v>
+      </c>
+      <c r="G7">
+        <v>13.89</v>
+      </c>
+      <c r="I7">
+        <v>768</v>
+      </c>
+      <c r="J7">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>896</v>
+      </c>
+      <c r="G8">
+        <v>12.62</v>
+      </c>
+      <c r="I8">
+        <v>800</v>
+      </c>
+      <c r="J8">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>1024</v>
+      </c>
+      <c r="G9">
+        <v>13.35</v>
+      </c>
+      <c r="I9">
+        <v>832</v>
+      </c>
+      <c r="J9">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1152</v>
+      </c>
+      <c r="G10">
+        <v>14.24</v>
+      </c>
+      <c r="I10">
+        <v>864</v>
+      </c>
+      <c r="J10">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1280</v>
+      </c>
+      <c r="G11">
+        <v>14.53</v>
+      </c>
+      <c r="I11">
+        <v>896</v>
+      </c>
+      <c r="J11">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1408</v>
+      </c>
+      <c r="G12">
+        <v>14.84</v>
+      </c>
+      <c r="I12">
+        <v>928</v>
+      </c>
+      <c r="J12">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1536</v>
+      </c>
+      <c r="G13">
+        <v>14.87</v>
+      </c>
+      <c r="I13">
+        <v>960</v>
+      </c>
+      <c r="J13">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1664</v>
+      </c>
+      <c r="G14">
+        <v>15.6</v>
+      </c>
+      <c r="I14">
+        <v>992</v>
+      </c>
+      <c r="J14">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1792</v>
+      </c>
+      <c r="G15">
+        <v>15.74</v>
+      </c>
+      <c r="I15">
+        <v>1024</v>
+      </c>
+      <c r="J15">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1920</v>
+      </c>
+      <c r="G16">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>2048</v>
+      </c>
+      <c r="G17">
+        <v>13.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>